--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Fam3c-Lifr.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Fam3c-Lifr.xlsx
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>11.828023</v>
+        <v>12.3640055</v>
       </c>
       <c r="H2">
-        <v>23.656046</v>
+        <v>24.728011</v>
       </c>
       <c r="I2">
-        <v>0.1833038992892811</v>
+        <v>0.2131016786440698</v>
       </c>
       <c r="J2">
-        <v>0.135872590447369</v>
+        <v>0.1611772091851441</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>31.7631495</v>
+        <v>31.3552725</v>
       </c>
       <c r="N2">
-        <v>63.52629899999999</v>
+        <v>62.710545</v>
       </c>
       <c r="O2">
-        <v>0.2494255238736205</v>
+        <v>0.299218473999331</v>
       </c>
       <c r="P2">
-        <v>0.1905320411699034</v>
+        <v>0.2323911939229701</v>
       </c>
       <c r="Q2">
-        <v>375.6952628384385</v>
+        <v>387.6767616439988</v>
       </c>
       <c r="R2">
-        <v>1502.781051353754</v>
+        <v>1550.707046575995</v>
       </c>
       <c r="S2">
-        <v>0.04572067110830632</v>
+        <v>0.06376395909057439</v>
       </c>
       <c r="T2">
-        <v>0.02588808199697955</v>
+        <v>0.03745616407570793</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>11.828023</v>
+        <v>12.3640055</v>
       </c>
       <c r="H3">
-        <v>23.656046</v>
+        <v>24.728011</v>
       </c>
       <c r="I3">
-        <v>0.1833038992892811</v>
+        <v>0.2131016786440698</v>
       </c>
       <c r="J3">
-        <v>0.135872590447369</v>
+        <v>0.1611772091851441</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>53.453339</v>
       </c>
       <c r="O3">
-        <v>0.139917139754138</v>
+        <v>0.1700322917594261</v>
       </c>
       <c r="P3">
-        <v>0.1603205907999899</v>
+        <v>0.1980860678117095</v>
       </c>
       <c r="Q3">
-        <v>210.7491077062657</v>
+        <v>220.2991257964549</v>
       </c>
       <c r="R3">
-        <v>1264.494646237594</v>
+        <v>1321.794754778729</v>
       </c>
       <c r="S3">
-        <v>0.02564735729433678</v>
+        <v>0.03623416679763193</v>
       </c>
       <c r="T3">
-        <v>0.02178317397404727</v>
+        <v>0.03192695958835053</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>11.828023</v>
+        <v>12.3640055</v>
       </c>
       <c r="H4">
-        <v>23.656046</v>
+        <v>24.728011</v>
       </c>
       <c r="I4">
-        <v>0.1833038992892811</v>
+        <v>0.2131016786440698</v>
       </c>
       <c r="J4">
-        <v>0.135872590447369</v>
+        <v>0.1611772091851441</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>13.32746566666667</v>
+        <v>26.80116433333333</v>
       </c>
       <c r="N4">
-        <v>39.982397</v>
+        <v>80.403493</v>
       </c>
       <c r="O4">
-        <v>0.1046561867492399</v>
+        <v>0.2557593302123367</v>
       </c>
       <c r="P4">
-        <v>0.1199177007191215</v>
+        <v>0.2979572850761729</v>
       </c>
       <c r="Q4">
-        <v>157.6375704370437</v>
+        <v>331.3697432237372</v>
       </c>
       <c r="R4">
-        <v>945.825422622262</v>
+        <v>1988.218459342423</v>
       </c>
       <c r="S4">
-        <v>0.01918388711588286</v>
+        <v>0.05450274259713189</v>
       </c>
       <c r="T4">
-        <v>0.01629352863719936</v>
+        <v>0.04802392366495992</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>11.828023</v>
+        <v>12.3640055</v>
       </c>
       <c r="H5">
-        <v>23.656046</v>
+        <v>24.728011</v>
       </c>
       <c r="I5">
-        <v>0.1833038992892811</v>
+        <v>0.2131016786440698</v>
       </c>
       <c r="J5">
-        <v>0.135872590447369</v>
+        <v>0.1611772091851441</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>16.857219</v>
+        <v>13.167359</v>
       </c>
       <c r="N5">
-        <v>33.714438</v>
+        <v>26.334718</v>
       </c>
       <c r="O5">
-        <v>0.1323741740449054</v>
+        <v>0.1256540528098219</v>
       </c>
       <c r="P5">
-        <v>0.1011184468504321</v>
+        <v>0.09759054968577822</v>
       </c>
       <c r="Q5">
-        <v>199.387574048037</v>
+        <v>162.8012990964745</v>
       </c>
       <c r="R5">
-        <v>797.550296192148</v>
+        <v>651.2051963858981</v>
       </c>
       <c r="S5">
-        <v>0.02426470226762911</v>
+        <v>0.02677708958220365</v>
       </c>
       <c r="T5">
-        <v>0.01373922531558282</v>
+        <v>0.01572937244119787</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>11.828023</v>
+        <v>12.3640055</v>
       </c>
       <c r="H6">
-        <v>23.656046</v>
+        <v>24.728011</v>
       </c>
       <c r="I6">
-        <v>0.1833038992892811</v>
+        <v>0.2131016786440698</v>
       </c>
       <c r="J6">
-        <v>0.135872590447369</v>
+        <v>0.1611772091851441</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>23.53771866666667</v>
+        <v>5.16573</v>
       </c>
       <c r="N6">
-        <v>70.613156</v>
+        <v>15.49719</v>
       </c>
       <c r="O6">
-        <v>0.184833931824778</v>
+        <v>0.04929575552859776</v>
       </c>
       <c r="P6">
-        <v>0.211787385034485</v>
+        <v>0.05742910520951641</v>
       </c>
       <c r="Q6">
-        <v>278.4046777568627</v>
+        <v>63.869114131515</v>
       </c>
       <c r="R6">
-        <v>1670.428066541176</v>
+        <v>383.21468478909</v>
       </c>
       <c r="S6">
-        <v>0.03388078042445095</v>
+        <v>0.01050500825317187</v>
       </c>
       <c r="T6">
-        <v>0.02877610062870983</v>
+        <v>0.009256262903669871</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,16 +853,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>11.828023</v>
+        <v>12.3640055</v>
       </c>
       <c r="H7">
-        <v>23.656046</v>
+        <v>24.728011</v>
       </c>
       <c r="I7">
-        <v>0.1833038992892811</v>
+        <v>0.2131016786440698</v>
       </c>
       <c r="J7">
-        <v>0.135872590447369</v>
+        <v>0.1611772091851441</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>24.04189266666667</v>
+        <v>10.483258</v>
       </c>
       <c r="N7">
-        <v>72.12567800000001</v>
+        <v>31.449774</v>
       </c>
       <c r="O7">
-        <v>0.1887930437533183</v>
+        <v>0.1000400956904865</v>
       </c>
       <c r="P7">
-        <v>0.2163238354260682</v>
+        <v>0.1165457982938529</v>
       </c>
       <c r="Q7">
-        <v>284.3680594248647</v>
+        <v>129.615059569919</v>
       </c>
       <c r="R7">
-        <v>1706.208356549188</v>
+        <v>777.6903574195142</v>
       </c>
       <c r="S7">
-        <v>0.0346065010786751</v>
+        <v>0.02131871232335604</v>
       </c>
       <c r="T7">
-        <v>0.02939247989485023</v>
+        <v>0.01878452651125793</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -921,10 +921,10 @@
         <v>32.506117</v>
       </c>
       <c r="I8">
-        <v>0.167920370035736</v>
+        <v>0.1867546915089001</v>
       </c>
       <c r="J8">
-        <v>0.1867045034565481</v>
+        <v>0.2118749146264035</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>31.7631495</v>
+        <v>31.3552725</v>
       </c>
       <c r="N8">
-        <v>63.52629899999999</v>
+        <v>62.710545</v>
       </c>
       <c r="O8">
-        <v>0.2494255238736205</v>
+        <v>0.299218473999331</v>
       </c>
       <c r="P8">
-        <v>0.1905320411699034</v>
+        <v>0.2323911939229701</v>
       </c>
       <c r="Q8">
-        <v>344.1655513118305</v>
+        <v>339.7460521506275</v>
       </c>
       <c r="R8">
-        <v>2064.993307870983</v>
+        <v>2038.476312903765</v>
       </c>
       <c r="S8">
-        <v>0.04188362626521566</v>
+        <v>0.05588045380550892</v>
       </c>
       <c r="T8">
-        <v>0.0355731901391894</v>
+        <v>0.04923786437235727</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -983,10 +983,10 @@
         <v>32.506117</v>
       </c>
       <c r="I9">
-        <v>0.167920370035736</v>
+        <v>0.1867546915089001</v>
       </c>
       <c r="J9">
-        <v>0.1867045034565481</v>
+        <v>0.2118749146264035</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,10 +1001,10 @@
         <v>53.453339</v>
       </c>
       <c r="O9">
-        <v>0.139917139754138</v>
+        <v>0.1700322917594261</v>
       </c>
       <c r="P9">
-        <v>0.1603205907999899</v>
+        <v>0.1980860678117095</v>
       </c>
       <c r="Q9">
         <v>193.0622768416292</v>
@@ -1013,10 +1013,10 @@
         <v>1737.560491574663</v>
       </c>
       <c r="S9">
-        <v>0.02349493788185664</v>
+        <v>0.03175432819408291</v>
       </c>
       <c r="T9">
-        <v>0.02993257629917255</v>
+        <v>0.04196946870628593</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1045,10 +1045,10 @@
         <v>32.506117</v>
       </c>
       <c r="I10">
-        <v>0.167920370035736</v>
+        <v>0.1867546915089001</v>
       </c>
       <c r="J10">
-        <v>0.1867045034565481</v>
+        <v>0.2118749146264035</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>13.32746566666667</v>
+        <v>26.80116433333333</v>
       </c>
       <c r="N10">
-        <v>39.982397</v>
+        <v>80.403493</v>
       </c>
       <c r="O10">
-        <v>0.1046561867492399</v>
+        <v>0.2557593302123367</v>
       </c>
       <c r="P10">
-        <v>0.1199177007191215</v>
+        <v>0.2979572850761729</v>
       </c>
       <c r="Q10">
-        <v>144.4080527580499</v>
+        <v>290.4005945185201</v>
       </c>
       <c r="R10">
-        <v>1299.672474822449</v>
+        <v>2613.605350666681</v>
       </c>
       <c r="S10">
-        <v>0.01757390560546145</v>
+        <v>0.04776425481432785</v>
       </c>
       <c r="T10">
-        <v>0.02238917476841451</v>
+        <v>0.06312967433782909</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1107,10 +1107,10 @@
         <v>32.506117</v>
       </c>
       <c r="I11">
-        <v>0.167920370035736</v>
+        <v>0.1867546915089001</v>
       </c>
       <c r="J11">
-        <v>0.1867045034565481</v>
+        <v>0.2118749146264035</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>16.857219</v>
+        <v>13.167359</v>
       </c>
       <c r="N11">
-        <v>33.714438</v>
+        <v>26.334718</v>
       </c>
       <c r="O11">
-        <v>0.1323741740449054</v>
+        <v>0.1256540528098219</v>
       </c>
       <c r="P11">
-        <v>0.1011184468504321</v>
+        <v>0.09759054968577822</v>
       </c>
       <c r="Q11">
-        <v>182.654244369541</v>
+        <v>142.6732374116677</v>
       </c>
       <c r="R11">
-        <v>1095.925466217246</v>
+        <v>856.0394244700061</v>
       </c>
       <c r="S11">
-        <v>0.02222832028879543</v>
+        <v>0.02346648386934134</v>
       </c>
       <c r="T11">
-        <v>0.01887926940950728</v>
+        <v>0.02067698938301805</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1169,10 +1169,10 @@
         <v>32.506117</v>
       </c>
       <c r="I12">
-        <v>0.167920370035736</v>
+        <v>0.1867546915089001</v>
       </c>
       <c r="J12">
-        <v>0.1867045034565481</v>
+        <v>0.2118749146264035</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>23.53771866666667</v>
+        <v>5.16573</v>
       </c>
       <c r="N12">
-        <v>70.613156</v>
+        <v>15.49719</v>
       </c>
       <c r="O12">
-        <v>0.184833931824778</v>
+        <v>0.04929575552859776</v>
       </c>
       <c r="P12">
-        <v>0.211787385034485</v>
+        <v>0.05742910520951641</v>
       </c>
       <c r="Q12">
-        <v>255.0399456305836</v>
+        <v>55.97260792347</v>
       </c>
       <c r="R12">
-        <v>2295.359510675252</v>
+        <v>503.75347131123</v>
       </c>
       <c r="S12">
-        <v>0.03103738222717672</v>
+        <v>0.009206213616441432</v>
       </c>
       <c r="T12">
-        <v>0.03954165856122428</v>
+        <v>0.01216778676333703</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1231,10 +1231,10 @@
         <v>32.506117</v>
       </c>
       <c r="I13">
-        <v>0.167920370035736</v>
+        <v>0.1867546915089001</v>
       </c>
       <c r="J13">
-        <v>0.1867045034565481</v>
+        <v>0.2118749146264035</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>24.04189266666667</v>
+        <v>10.483258</v>
       </c>
       <c r="N13">
-        <v>72.12567800000001</v>
+        <v>31.449774</v>
       </c>
       <c r="O13">
-        <v>0.1887930437533183</v>
+        <v>0.1000400956904865</v>
       </c>
       <c r="P13">
-        <v>0.2163238354260682</v>
+        <v>0.1165457982938529</v>
       </c>
       <c r="Q13">
-        <v>260.5028586413696</v>
+        <v>113.5900036963954</v>
       </c>
       <c r="R13">
-        <v>2344.525727772326</v>
+        <v>1022.310033267558</v>
       </c>
       <c r="S13">
-        <v>0.03170219776723011</v>
+        <v>0.01868295720919765</v>
       </c>
       <c r="T13">
-        <v>0.0403886342790401</v>
+        <v>0.02469313106357612</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1287,16 +1287,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>11.51669733333333</v>
+        <v>9.699633</v>
       </c>
       <c r="H14">
-        <v>34.550092</v>
+        <v>29.098899</v>
       </c>
       <c r="I14">
-        <v>0.1784791531208948</v>
+        <v>0.1671794852025433</v>
       </c>
       <c r="J14">
-        <v>0.1984444272823498</v>
+        <v>0.1896666630882839</v>
       </c>
       <c r="K14">
         <v>2</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>31.7631495</v>
+        <v>31.3552725</v>
       </c>
       <c r="N14">
-        <v>63.52629899999999</v>
+        <v>62.710545</v>
       </c>
       <c r="O14">
-        <v>0.2494255238736205</v>
+        <v>0.299218473999331</v>
       </c>
       <c r="P14">
-        <v>0.1905320411699034</v>
+        <v>0.2323911939229701</v>
       </c>
       <c r="Q14">
-        <v>365.806579144918</v>
+        <v>304.1346358649925</v>
       </c>
       <c r="R14">
-        <v>2194.839474869508</v>
+        <v>1824.807815189955</v>
       </c>
       <c r="S14">
-        <v>0.04451725626769933</v>
+        <v>0.05002319044629876</v>
       </c>
       <c r="T14">
-        <v>0.03781002178889858</v>
+        <v>0.04407686228247202</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1349,16 +1349,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>11.51669733333333</v>
+        <v>9.699633</v>
       </c>
       <c r="H15">
-        <v>34.550092</v>
+        <v>29.098899</v>
       </c>
       <c r="I15">
-        <v>0.1784791531208948</v>
+        <v>0.1671794852025433</v>
       </c>
       <c r="J15">
-        <v>0.1984444272823498</v>
+        <v>0.1896666630882839</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>53.453339</v>
       </c>
       <c r="O15">
-        <v>0.139917139754138</v>
+        <v>0.1700322917594261</v>
       </c>
       <c r="P15">
-        <v>0.1603205907999899</v>
+        <v>0.1980860678117095</v>
       </c>
       <c r="Q15">
-        <v>205.2019755730209</v>
+        <v>172.825923641529</v>
       </c>
       <c r="R15">
-        <v>1846.817780157188</v>
+        <v>1555.433312773761</v>
       </c>
       <c r="S15">
-        <v>0.02497229261041643</v>
+        <v>0.0284259110041495</v>
       </c>
       <c r="T15">
-        <v>0.03181472782287195</v>
+        <v>0.03757032348612647</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1411,16 +1411,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>11.51669733333333</v>
+        <v>9.699633</v>
       </c>
       <c r="H16">
-        <v>34.550092</v>
+        <v>29.098899</v>
       </c>
       <c r="I16">
-        <v>0.1784791531208948</v>
+        <v>0.1671794852025433</v>
       </c>
       <c r="J16">
-        <v>0.1984444272823498</v>
+        <v>0.1896666630882839</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>13.32746566666667</v>
+        <v>26.80116433333333</v>
       </c>
       <c r="N16">
-        <v>39.982397</v>
+        <v>80.403493</v>
       </c>
       <c r="O16">
-        <v>0.1046561867492399</v>
+        <v>0.2557593302123367</v>
       </c>
       <c r="P16">
-        <v>0.1199177007191215</v>
+        <v>0.2979572850761729</v>
       </c>
       <c r="Q16">
-        <v>153.4883883033916</v>
+        <v>259.961458006023</v>
       </c>
       <c r="R16">
-        <v>1381.395494730524</v>
+        <v>2339.653122054207</v>
       </c>
       <c r="S16">
-        <v>0.01867894757986654</v>
+        <v>0.04275771316064573</v>
       </c>
       <c r="T16">
-        <v>0.02379699944022228</v>
+        <v>0.05651256400324225</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1473,16 +1473,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>11.51669733333333</v>
+        <v>9.699633</v>
       </c>
       <c r="H17">
-        <v>34.550092</v>
+        <v>29.098899</v>
       </c>
       <c r="I17">
-        <v>0.1784791531208948</v>
+        <v>0.1671794852025433</v>
       </c>
       <c r="J17">
-        <v>0.1984444272823498</v>
+        <v>0.1896666630882839</v>
       </c>
       <c r="K17">
         <v>2</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>16.857219</v>
+        <v>13.167359</v>
       </c>
       <c r="N17">
-        <v>33.714438</v>
+        <v>26.334718</v>
       </c>
       <c r="O17">
-        <v>0.1323741740449054</v>
+        <v>0.1256540528098219</v>
       </c>
       <c r="P17">
-        <v>0.1011184468504321</v>
+        <v>0.09759054968577822</v>
       </c>
       <c r="Q17">
-        <v>194.139489104716</v>
+        <v>127.718549879247</v>
       </c>
       <c r="R17">
-        <v>1164.836934628296</v>
+        <v>766.3112992754822</v>
       </c>
       <c r="S17">
-        <v>0.02362603047861265</v>
+        <v>0.02100677986235923</v>
       </c>
       <c r="T17">
-        <v>0.02006639227291472</v>
+        <v>0.01850967390785293</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1535,16 +1535,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>11.51669733333333</v>
+        <v>9.699633</v>
       </c>
       <c r="H18">
-        <v>34.550092</v>
+        <v>29.098899</v>
       </c>
       <c r="I18">
-        <v>0.1784791531208948</v>
+        <v>0.1671794852025433</v>
       </c>
       <c r="J18">
-        <v>0.1984444272823498</v>
+        <v>0.1896666630882839</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>23.53771866666667</v>
+        <v>5.16573</v>
       </c>
       <c r="N18">
-        <v>70.613156</v>
+        <v>15.49719</v>
       </c>
       <c r="O18">
-        <v>0.184833931824778</v>
+        <v>0.04929575552859776</v>
       </c>
       <c r="P18">
-        <v>0.211787385034485</v>
+        <v>0.05742910520951641</v>
       </c>
       <c r="Q18">
-        <v>271.0767818011502</v>
+        <v>50.10568517709</v>
       </c>
       <c r="R18">
-        <v>2439.691036210352</v>
+        <v>450.9511665938101</v>
       </c>
       <c r="S18">
-        <v>0.03298900362009159</v>
+        <v>0.008241239031941404</v>
       </c>
       <c r="T18">
-        <v>0.04202802632879487</v>
+        <v>0.01089238674923496</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1597,16 +1597,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>11.51669733333333</v>
+        <v>9.699633</v>
       </c>
       <c r="H19">
-        <v>34.550092</v>
+        <v>29.098899</v>
       </c>
       <c r="I19">
-        <v>0.1784791531208948</v>
+        <v>0.1671794852025433</v>
       </c>
       <c r="J19">
-        <v>0.1984444272823498</v>
+        <v>0.1896666630882839</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>24.04189266666667</v>
+        <v>10.483258</v>
       </c>
       <c r="N19">
-        <v>72.12567800000001</v>
+        <v>31.449774</v>
       </c>
       <c r="O19">
-        <v>0.1887930437533183</v>
+        <v>0.1000400956904865</v>
       </c>
       <c r="P19">
-        <v>0.2163238354260682</v>
+        <v>0.1165457982938529</v>
       </c>
       <c r="Q19">
-        <v>276.8832011624863</v>
+        <v>101.683755244314</v>
       </c>
       <c r="R19">
-        <v>2491.948810462376</v>
+        <v>915.1537971988262</v>
       </c>
       <c r="S19">
-        <v>0.03369562256420829</v>
+        <v>0.0167246516971487</v>
       </c>
       <c r="T19">
-        <v>0.0429282596286474</v>
+        <v>0.02210485265935529</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1659,16 +1659,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>7.6479015</v>
+        <v>8.272565</v>
       </c>
       <c r="H20">
-        <v>15.295803</v>
+        <v>16.54513</v>
       </c>
       <c r="I20">
-        <v>0.118522779870342</v>
+        <v>0.1425830397917713</v>
       </c>
       <c r="J20">
-        <v>0.08785408924985345</v>
+        <v>0.1078411797457305</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>31.7631495</v>
+        <v>31.3552725</v>
       </c>
       <c r="N20">
-        <v>63.52629899999999</v>
+        <v>62.710545</v>
       </c>
       <c r="O20">
-        <v>0.2494255238736205</v>
+        <v>0.299218473999331</v>
       </c>
       <c r="P20">
-        <v>0.1905320411699034</v>
+        <v>0.2323911939229701</v>
       </c>
       <c r="Q20">
-        <v>242.9214387057742</v>
+        <v>259.3885298489625</v>
       </c>
       <c r="R20">
-        <v>971.6857548230969</v>
+        <v>1037.55411939585</v>
       </c>
       <c r="S20">
-        <v>0.02956260646011785</v>
+        <v>0.0426634795846797</v>
       </c>
       <c r="T20">
-        <v>0.01673901894989745</v>
+        <v>0.02506134051517194</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1721,16 +1721,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>7.6479015</v>
+        <v>8.272565</v>
       </c>
       <c r="H21">
-        <v>15.295803</v>
+        <v>16.54513</v>
       </c>
       <c r="I21">
-        <v>0.118522779870342</v>
+        <v>0.1425830397917713</v>
       </c>
       <c r="J21">
-        <v>0.08785408924985345</v>
+        <v>0.1078411797457305</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1745,22 +1745,22 @@
         <v>53.453339</v>
       </c>
       <c r="O21">
-        <v>0.139917139754138</v>
+        <v>0.1700322917594261</v>
       </c>
       <c r="P21">
-        <v>0.1603205907999899</v>
+        <v>0.1980860678117095</v>
       </c>
       <c r="Q21">
-        <v>136.2686238393695</v>
+        <v>147.3987404481783</v>
       </c>
       <c r="R21">
-        <v>817.6117430362169</v>
+        <v>884.39244268907</v>
       </c>
       <c r="S21">
-        <v>0.01658336835516757</v>
+        <v>0.02424372102182031</v>
       </c>
       <c r="T21">
-        <v>0.01408481949273155</v>
+        <v>0.02136183524400754</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1783,16 +1783,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>7.6479015</v>
+        <v>8.272565</v>
       </c>
       <c r="H22">
-        <v>15.295803</v>
+        <v>16.54513</v>
       </c>
       <c r="I22">
-        <v>0.118522779870342</v>
+        <v>0.1425830397917713</v>
       </c>
       <c r="J22">
-        <v>0.08785408924985345</v>
+        <v>0.1078411797457305</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>13.32746566666667</v>
+        <v>26.80116433333333</v>
       </c>
       <c r="N22">
-        <v>39.982397</v>
+        <v>80.403493</v>
       </c>
       <c r="O22">
-        <v>0.1046561867492399</v>
+        <v>0.2557593302123367</v>
       </c>
       <c r="P22">
-        <v>0.1199177007191215</v>
+        <v>0.2979572850761729</v>
       </c>
       <c r="Q22">
-        <v>101.9271446632985</v>
+        <v>221.7143740231817</v>
       </c>
       <c r="R22">
-        <v>611.562867979791</v>
+        <v>1330.28624413909</v>
       </c>
       <c r="S22">
-        <v>0.01240414218414956</v>
+        <v>0.03646694275678237</v>
       </c>
       <c r="T22">
-        <v>0.01053526038161491</v>
+        <v>0.03213206513644944</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1845,16 +1845,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>7.6479015</v>
+        <v>8.272565</v>
       </c>
       <c r="H23">
-        <v>15.295803</v>
+        <v>16.54513</v>
       </c>
       <c r="I23">
-        <v>0.118522779870342</v>
+        <v>0.1425830397917713</v>
       </c>
       <c r="J23">
-        <v>0.08785408924985345</v>
+        <v>0.1078411797457305</v>
       </c>
       <c r="K23">
         <v>2</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>16.857219</v>
+        <v>13.167359</v>
       </c>
       <c r="N23">
-        <v>33.714438</v>
+        <v>26.334718</v>
       </c>
       <c r="O23">
-        <v>0.1323741740449054</v>
+        <v>0.1256540528098219</v>
       </c>
       <c r="P23">
-        <v>0.1011184468504321</v>
+        <v>0.09759054968577822</v>
       </c>
       <c r="Q23">
-        <v>128.9223504759285</v>
+        <v>108.927833205835</v>
       </c>
       <c r="R23">
-        <v>515.689401903714</v>
+        <v>435.7113328233401</v>
       </c>
       <c r="S23">
-        <v>0.01568935509084266</v>
+        <v>0.01791613681178017</v>
       </c>
       <c r="T23">
-        <v>0.008883669054404424</v>
+        <v>0.01052428001014866</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1907,16 +1907,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>7.6479015</v>
+        <v>8.272565</v>
       </c>
       <c r="H24">
-        <v>15.295803</v>
+        <v>16.54513</v>
       </c>
       <c r="I24">
-        <v>0.118522779870342</v>
+        <v>0.1425830397917713</v>
       </c>
       <c r="J24">
-        <v>0.08785408924985345</v>
+        <v>0.1078411797457305</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>23.53771866666667</v>
+        <v>5.16573</v>
       </c>
       <c r="N24">
-        <v>70.613156</v>
+        <v>15.49719</v>
       </c>
       <c r="O24">
-        <v>0.184833931824778</v>
+        <v>0.04929575552859776</v>
       </c>
       <c r="P24">
-        <v>0.211787385034485</v>
+        <v>0.05742910520951641</v>
       </c>
       <c r="Q24">
-        <v>180.014153897378</v>
+        <v>42.73383719745</v>
       </c>
       <c r="R24">
-        <v>1080.084923384268</v>
+        <v>256.4030231847</v>
       </c>
       <c r="S24">
-        <v>0.02190703141423796</v>
+        <v>0.007028738672099483</v>
       </c>
       <c r="T24">
-        <v>0.01860638782681272</v>
+        <v>0.006193222457535929</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1969,16 +1969,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>7.6479015</v>
+        <v>8.272565</v>
       </c>
       <c r="H25">
-        <v>15.295803</v>
+        <v>16.54513</v>
       </c>
       <c r="I25">
-        <v>0.118522779870342</v>
+        <v>0.1425830397917713</v>
       </c>
       <c r="J25">
-        <v>0.08785408924985345</v>
+        <v>0.1078411797457305</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>24.04189266666667</v>
+        <v>10.483258</v>
       </c>
       <c r="N25">
-        <v>72.12567800000001</v>
+        <v>31.449774</v>
       </c>
       <c r="O25">
-        <v>0.1887930437533183</v>
+        <v>0.1000400956904865</v>
       </c>
       <c r="P25">
-        <v>0.2163238354260682</v>
+        <v>0.1165457982938529</v>
       </c>
       <c r="Q25">
-        <v>183.870026988239</v>
+        <v>86.72343321677</v>
       </c>
       <c r="R25">
-        <v>1103.220161929434</v>
+        <v>520.3405993006201</v>
       </c>
       <c r="S25">
-        <v>0.02237627636582638</v>
+        <v>0.01426402094460924</v>
       </c>
       <c r="T25">
-        <v>0.01900493354439241</v>
+        <v>0.01256843638241704</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2031,16 +2031,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>8.186035666666667</v>
+        <v>5.642618</v>
       </c>
       <c r="H26">
-        <v>24.558107</v>
+        <v>16.927854</v>
       </c>
       <c r="I26">
-        <v>0.1268624737558534</v>
+        <v>0.09725419223950067</v>
       </c>
       <c r="J26">
-        <v>0.1410537337716399</v>
+        <v>0.1103357752960227</v>
       </c>
       <c r="K26">
         <v>2</v>
@@ -2049,28 +2049,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>31.7631495</v>
+        <v>31.3552725</v>
       </c>
       <c r="N26">
-        <v>63.52629899999999</v>
+        <v>62.710545</v>
       </c>
       <c r="O26">
-        <v>0.2494255238736205</v>
+        <v>0.299218473999331</v>
       </c>
       <c r="P26">
-        <v>0.1905320411699034</v>
+        <v>0.2323911939229701</v>
       </c>
       <c r="Q26">
-        <v>260.0142746926655</v>
+        <v>176.925825003405</v>
       </c>
       <c r="R26">
-        <v>1560.085648155993</v>
+        <v>1061.55495002043</v>
       </c>
       <c r="S26">
-        <v>0.03164273897645715</v>
+        <v>0.02910025099194097</v>
       </c>
       <c r="T26">
-        <v>0.02687525581014669</v>
+        <v>0.02564106255345926</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2093,16 +2093,16 @@
         <v>1</v>
       </c>
       <c r="G27">
-        <v>8.186035666666667</v>
+        <v>5.642618</v>
       </c>
       <c r="H27">
-        <v>24.558107</v>
+        <v>16.927854</v>
       </c>
       <c r="I27">
-        <v>0.1268624737558534</v>
+        <v>0.09725419223950067</v>
       </c>
       <c r="J27">
-        <v>0.1410537337716399</v>
+        <v>0.1103357752960227</v>
       </c>
       <c r="K27">
         <v>3</v>
@@ -2117,22 +2117,22 @@
         <v>53.453339</v>
       </c>
       <c r="O27">
-        <v>0.139917139754138</v>
+        <v>0.1700322917594261</v>
       </c>
       <c r="P27">
-        <v>0.1603205907999899</v>
+        <v>0.1980860678117095</v>
       </c>
       <c r="Q27">
-        <v>145.8569798521414</v>
+        <v>100.5389242671673</v>
       </c>
       <c r="R27">
-        <v>1312.712818669273</v>
+        <v>904.850318404506</v>
       </c>
       <c r="S27">
-        <v>0.0177502344700534</v>
+        <v>0.01653635318969409</v>
       </c>
       <c r="T27">
-        <v>0.0226138179328138</v>
+        <v>0.02185597986734549</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2155,16 +2155,16 @@
         <v>1</v>
       </c>
       <c r="G28">
-        <v>8.186035666666667</v>
+        <v>5.642618</v>
       </c>
       <c r="H28">
-        <v>24.558107</v>
+        <v>16.927854</v>
       </c>
       <c r="I28">
-        <v>0.1268624737558534</v>
+        <v>0.09725419223950067</v>
       </c>
       <c r="J28">
-        <v>0.1410537337716399</v>
+        <v>0.1103357752960227</v>
       </c>
       <c r="K28">
         <v>3</v>
@@ -2173,28 +2173,28 @@
         <v>1</v>
       </c>
       <c r="M28">
-        <v>13.32746566666667</v>
+        <v>26.80116433333333</v>
       </c>
       <c r="N28">
-        <v>39.982397</v>
+        <v>80.403493</v>
       </c>
       <c r="O28">
-        <v>0.1046561867492399</v>
+        <v>0.2557593302123367</v>
       </c>
       <c r="P28">
-        <v>0.1199177007191215</v>
+        <v>0.2979572850761729</v>
       </c>
       <c r="Q28">
-        <v>109.0991092936088</v>
+        <v>151.2287322882246</v>
       </c>
       <c r="R28">
-        <v>981.891983642479</v>
+        <v>1361.058590594022</v>
       </c>
       <c r="S28">
-        <v>0.01327694274486313</v>
+        <v>0.02487366706751652</v>
       </c>
       <c r="T28">
-        <v>0.01691483943174215</v>
+        <v>0.03287534805397758</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2217,16 +2217,16 @@
         <v>1</v>
       </c>
       <c r="G29">
-        <v>8.186035666666667</v>
+        <v>5.642618</v>
       </c>
       <c r="H29">
-        <v>24.558107</v>
+        <v>16.927854</v>
       </c>
       <c r="I29">
-        <v>0.1268624737558534</v>
+        <v>0.09725419223950067</v>
       </c>
       <c r="J29">
-        <v>0.1410537337716399</v>
+        <v>0.1103357752960227</v>
       </c>
       <c r="K29">
         <v>2</v>
@@ -2235,28 +2235,28 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>16.857219</v>
+        <v>13.167359</v>
       </c>
       <c r="N29">
-        <v>33.714438</v>
+        <v>26.334718</v>
       </c>
       <c r="O29">
-        <v>0.1323741740449054</v>
+        <v>0.1256540528098219</v>
       </c>
       <c r="P29">
-        <v>0.1011184468504321</v>
+        <v>0.09759054968577822</v>
       </c>
       <c r="Q29">
-        <v>137.993795974811</v>
+        <v>74.298376905862</v>
       </c>
       <c r="R29">
-        <v>827.962775848866</v>
+        <v>445.7902614351721</v>
       </c>
       <c r="S29">
-        <v>0.01679331518072457</v>
+        <v>0.01222038340763879</v>
       </c>
       <c r="T29">
-        <v>0.01426313448144257</v>
+        <v>0.01076772896114536</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2279,16 +2279,16 @@
         <v>1</v>
       </c>
       <c r="G30">
-        <v>8.186035666666667</v>
+        <v>5.642618</v>
       </c>
       <c r="H30">
-        <v>24.558107</v>
+        <v>16.927854</v>
       </c>
       <c r="I30">
-        <v>0.1268624737558534</v>
+        <v>0.09725419223950067</v>
       </c>
       <c r="J30">
-        <v>0.1410537337716399</v>
+        <v>0.1103357752960227</v>
       </c>
       <c r="K30">
         <v>3</v>
@@ -2297,28 +2297,28 @@
         <v>1</v>
       </c>
       <c r="M30">
-        <v>23.53771866666667</v>
+        <v>5.16573</v>
       </c>
       <c r="N30">
-        <v>70.613156</v>
+        <v>15.49719</v>
       </c>
       <c r="O30">
-        <v>0.184833931824778</v>
+        <v>0.04929575552859776</v>
       </c>
       <c r="P30">
-        <v>0.211787385034485</v>
+        <v>0.05742910520951641</v>
       </c>
       <c r="Q30">
-        <v>192.6806045172991</v>
+        <v>29.14824108114</v>
       </c>
       <c r="R30">
-        <v>1734.125440655692</v>
+        <v>262.33416973026</v>
       </c>
       <c r="S30">
-        <v>0.02344848982531209</v>
+        <v>0.004794218884769674</v>
       </c>
       <c r="T30">
-        <v>0.02987340142484603</v>
+        <v>0.006336484847848847</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2341,16 +2341,16 @@
         <v>1</v>
       </c>
       <c r="G31">
-        <v>8.186035666666667</v>
+        <v>5.642618</v>
       </c>
       <c r="H31">
-        <v>24.558107</v>
+        <v>16.927854</v>
       </c>
       <c r="I31">
-        <v>0.1268624737558534</v>
+        <v>0.09725419223950067</v>
       </c>
       <c r="J31">
-        <v>0.1410537337716399</v>
+        <v>0.1103357752960227</v>
       </c>
       <c r="K31">
         <v>3</v>
@@ -2359,28 +2359,28 @@
         <v>1</v>
       </c>
       <c r="M31">
-        <v>24.04189266666667</v>
+        <v>10.483258</v>
       </c>
       <c r="N31">
-        <v>72.12567800000001</v>
+        <v>31.449774</v>
       </c>
       <c r="O31">
-        <v>0.1887930437533183</v>
+        <v>0.1000400956904865</v>
       </c>
       <c r="P31">
-        <v>0.2163238354260682</v>
+        <v>0.1165457982938529</v>
       </c>
       <c r="Q31">
-        <v>196.8077908635051</v>
+        <v>59.153020289444</v>
       </c>
       <c r="R31">
-        <v>1771.270117771546</v>
+        <v>532.3771826049961</v>
       </c>
       <c r="S31">
-        <v>0.02395075255844302</v>
+        <v>0.009729318697940616</v>
       </c>
       <c r="T31">
-        <v>0.03051328469064867</v>
+        <v>0.01285917101224613</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2403,16 +2403,16 @@
         <v>1</v>
       </c>
       <c r="G32">
-        <v>14.512819</v>
+        <v>11.205084</v>
       </c>
       <c r="H32">
-        <v>43.538457</v>
+        <v>33.615252</v>
       </c>
       <c r="I32">
-        <v>0.2249113239278927</v>
+        <v>0.1931269126132148</v>
       </c>
       <c r="J32">
-        <v>0.2500706557922397</v>
+        <v>0.2191042580584152</v>
       </c>
       <c r="K32">
         <v>2</v>
@@ -2421,28 +2421,28 @@
         <v>1</v>
       </c>
       <c r="M32">
-        <v>31.7631495</v>
+        <v>31.3552725</v>
       </c>
       <c r="N32">
-        <v>63.52629899999999</v>
+        <v>62.710545</v>
       </c>
       <c r="O32">
-        <v>0.2494255238736205</v>
+        <v>0.299218473999331</v>
       </c>
       <c r="P32">
-        <v>0.1905320411699034</v>
+        <v>0.2323911939229701</v>
       </c>
       <c r="Q32">
-        <v>460.9728395634405</v>
+        <v>351.33846220539</v>
       </c>
       <c r="R32">
-        <v>2765.837037380643</v>
+        <v>2108.03077323234</v>
       </c>
       <c r="S32">
-        <v>0.0560986247958242</v>
+        <v>0.0577871400803283</v>
       </c>
       <c r="T32">
-        <v>0.04764647248479176</v>
+        <v>0.05091790012380166</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2465,16 +2465,16 @@
         <v>1</v>
       </c>
       <c r="G33">
-        <v>14.512819</v>
+        <v>11.205084</v>
       </c>
       <c r="H33">
-        <v>43.538457</v>
+        <v>33.615252</v>
       </c>
       <c r="I33">
-        <v>0.2249113239278927</v>
+        <v>0.1931269126132148</v>
       </c>
       <c r="J33">
-        <v>0.2500706557922397</v>
+        <v>0.2191042580584152</v>
       </c>
       <c r="K33">
         <v>3</v>
@@ -2489,22 +2489,22 @@
         <v>53.453339</v>
       </c>
       <c r="O33">
-        <v>0.139917139754138</v>
+        <v>0.1700322917594261</v>
       </c>
       <c r="P33">
-        <v>0.1603205907999899</v>
+        <v>0.1980860678117095</v>
       </c>
       <c r="Q33">
-        <v>258.5862112842137</v>
+        <v>199.649717858492</v>
       </c>
       <c r="R33">
-        <v>2327.275901557923</v>
+        <v>1796.847460726428</v>
       </c>
       <c r="S33">
-        <v>0.03146894914230716</v>
+        <v>0.03283781155204733</v>
       </c>
       <c r="T33">
-        <v>0.04009147527835278</v>
+        <v>0.04340150091959354</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2527,16 +2527,16 @@
         <v>1</v>
       </c>
       <c r="G34">
-        <v>14.512819</v>
+        <v>11.205084</v>
       </c>
       <c r="H34">
-        <v>43.538457</v>
+        <v>33.615252</v>
       </c>
       <c r="I34">
-        <v>0.2249113239278927</v>
+        <v>0.1931269126132148</v>
       </c>
       <c r="J34">
-        <v>0.2500706557922397</v>
+        <v>0.2191042580584152</v>
       </c>
       <c r="K34">
         <v>3</v>
@@ -2545,28 +2545,28 @@
         <v>1</v>
       </c>
       <c r="M34">
-        <v>13.32746566666667</v>
+        <v>26.80116433333333</v>
       </c>
       <c r="N34">
-        <v>39.982397</v>
+        <v>80.403493</v>
       </c>
       <c r="O34">
-        <v>0.1046561867492399</v>
+        <v>0.2557593302123367</v>
       </c>
       <c r="P34">
-        <v>0.1199177007191215</v>
+        <v>0.2979572850761729</v>
       </c>
       <c r="Q34">
-        <v>193.4190969490477</v>
+        <v>300.309297652804</v>
       </c>
       <c r="R34">
-        <v>1740.771872541429</v>
+        <v>2702.783678875236</v>
       </c>
       <c r="S34">
-        <v>0.02353836151901632</v>
+        <v>0.0493940098159323</v>
       </c>
       <c r="T34">
-        <v>0.02998789805992824</v>
+        <v>0.06528370987971457</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2589,16 +2589,16 @@
         <v>1</v>
       </c>
       <c r="G35">
-        <v>14.512819</v>
+        <v>11.205084</v>
       </c>
       <c r="H35">
-        <v>43.538457</v>
+        <v>33.615252</v>
       </c>
       <c r="I35">
-        <v>0.2249113239278927</v>
+        <v>0.1931269126132148</v>
       </c>
       <c r="J35">
-        <v>0.2500706557922397</v>
+        <v>0.2191042580584152</v>
       </c>
       <c r="K35">
         <v>2</v>
@@ -2607,28 +2607,28 @@
         <v>1</v>
       </c>
       <c r="M35">
-        <v>16.857219</v>
+        <v>13.167359</v>
       </c>
       <c r="N35">
-        <v>33.714438</v>
+        <v>26.334718</v>
       </c>
       <c r="O35">
-        <v>0.1323741740449054</v>
+        <v>0.1256540528098219</v>
       </c>
       <c r="P35">
-        <v>0.1011184468504321</v>
+        <v>0.09759054968577822</v>
       </c>
       <c r="Q35">
-        <v>244.645768190361</v>
+        <v>147.541363653156</v>
       </c>
       <c r="R35">
-        <v>1467.874609142166</v>
+        <v>885.248181918936</v>
       </c>
       <c r="S35">
-        <v>0.02977245073830097</v>
+        <v>0.02426717927649876</v>
       </c>
       <c r="T35">
-        <v>0.02528675631658029</v>
+        <v>0.02138250498241535</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2651,16 +2651,16 @@
         <v>1</v>
       </c>
       <c r="G36">
-        <v>14.512819</v>
+        <v>11.205084</v>
       </c>
       <c r="H36">
-        <v>43.538457</v>
+        <v>33.615252</v>
       </c>
       <c r="I36">
-        <v>0.2249113239278927</v>
+        <v>0.1931269126132148</v>
       </c>
       <c r="J36">
-        <v>0.2500706557922397</v>
+        <v>0.2191042580584152</v>
       </c>
       <c r="K36">
         <v>3</v>
@@ -2669,28 +2669,28 @@
         <v>1</v>
       </c>
       <c r="M36">
-        <v>23.53771866666667</v>
+        <v>5.16573</v>
       </c>
       <c r="N36">
-        <v>70.613156</v>
+        <v>15.49719</v>
       </c>
       <c r="O36">
-        <v>0.184833931824778</v>
+        <v>0.04929575552859776</v>
       </c>
       <c r="P36">
-        <v>0.211787385034485</v>
+        <v>0.05742910520951641</v>
       </c>
       <c r="Q36">
-        <v>341.5986506822547</v>
+        <v>57.88243857131999</v>
       </c>
       <c r="R36">
-        <v>3074.387856140292</v>
+        <v>520.94194714188</v>
       </c>
       <c r="S36">
-        <v>0.04157124431350868</v>
+        <v>0.009520337070173902</v>
       </c>
       <c r="T36">
-        <v>0.05296181026409723</v>
+        <v>0.01258296148788976</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2713,16 +2713,16 @@
         <v>1</v>
       </c>
       <c r="G37">
-        <v>14.512819</v>
+        <v>11.205084</v>
       </c>
       <c r="H37">
-        <v>43.538457</v>
+        <v>33.615252</v>
       </c>
       <c r="I37">
-        <v>0.2249113239278927</v>
+        <v>0.1931269126132148</v>
       </c>
       <c r="J37">
-        <v>0.2500706557922397</v>
+        <v>0.2191042580584152</v>
       </c>
       <c r="K37">
         <v>3</v>
@@ -2731,28 +2731,28 @@
         <v>1</v>
       </c>
       <c r="M37">
-        <v>24.04189266666667</v>
+        <v>10.483258</v>
       </c>
       <c r="N37">
-        <v>72.12567800000001</v>
+        <v>31.449774</v>
       </c>
       <c r="O37">
-        <v>0.1887930437533183</v>
+        <v>0.1000400956904865</v>
       </c>
       <c r="P37">
-        <v>0.2163238354260682</v>
+        <v>0.1165457982938529</v>
       </c>
       <c r="Q37">
-        <v>348.9156366887607</v>
+        <v>117.465786483672</v>
       </c>
       <c r="R37">
-        <v>3140.240730198846</v>
+        <v>1057.192078353048</v>
       </c>
       <c r="S37">
-        <v>0.0424616934189354</v>
+        <v>0.01932043481823423</v>
       </c>
       <c r="T37">
-        <v>0.05409624338848942</v>
+        <v>0.02553568066500035</v>
       </c>
     </row>
   </sheetData>
